--- a/biology/Zoologie/Colias_wiskotti/Colias_wiskotti.xlsx
+++ b/biology/Zoologie/Colias_wiskotti/Colias_wiskotti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias wiskotti est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,48 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colias wiskotti a été décrit par Otto Staudinger en 1882[1].
-Sous-espèces
-Colias wiskotti wiskotti (Staudinger, 1882)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias wiskotti a été décrit par Otto Staudinger en 1882.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Colias wiskotti wiskotti (Staudinger, 1882)
 Colias wiskotti aurea (Kotzsch, 1937)
 Colias wiskotti chrysoptera (Grum-Grshimailo, 1888)
 Colias wiskotti draconis (Grum-Grshimailo, 1891)
 Colias wiskotti sagina (Austaut, 1891)
 Colias wiskotti separata (Grum-Grshimailo, 1888)
-Colias wiskotti sweadneri (Clench et Shoumatoff, 1956) en Afghanistan[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Colias_wiskotti</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colias_wiskotti</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias wiskotti présente des ailes antérieures à apex angulaire. Sa couleur varie du blanc au jaune ou à l'orange suivant les sous-espèce avec sur le dessus une très large bande noire le long du bord externe. Le revers est uni.
-</t>
+Colias wiskotti sweadneri (Clench et Shoumatoff, 1956) en Afghanistan.</t>
         </is>
       </c>
     </row>
@@ -577,13 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Acantholimon , des Oxytropis et Onobrychis echidna[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias wiskotti présente des ailes antérieures à apex angulaire. Sa couleur varie du blanc au jaune ou à l'orange suivant les sous-espèce avec sur le dessus une très large bande noire le long du bord externe. Le revers est uni.
 </t>
         </is>
       </c>
@@ -609,16 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias wiskotti est présent au Turkménistan, en Ouzbékistan et en Afghanistan[1].
-Biotope
-Colias wiskotti se rencontre en montagne entre 2 400 m et 4 000 m[2].
-Protection
-Il n'a pas de statut de protection particulière.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Acantholimon , des Oxytropis et Onobrychis echidna.
 </t>
         </is>
       </c>
@@ -644,10 +665,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias wiskotti est présent au Turkménistan, en Ouzbékistan et en Afghanistan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias wiskotti se rencontre en montagne entre 2 400 m et 4 000 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de statut de protection particulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_wiskotti</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ouzbékistan a émis un timbre en 1995. 
 </t>
